--- a/micro-service/common-findings.xlsx
+++ b/micro-service/common-findings.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Headings</t>
   </si>
@@ -44,6 +44,18 @@
   </si>
   <si>
     <t>Hystrix</t>
+  </si>
+  <si>
+    <t>Service discovery</t>
+  </si>
+  <si>
+    <t>Spring cloud eureka, Eureka Cilent, Ribbon</t>
+  </si>
+  <si>
+    <t>Tracing request in Microservices</t>
+  </si>
+  <si>
+    <t>Spring Clould Sleuth</t>
   </si>
 </sst>
 </file>
@@ -154,7 +166,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -189,7 +201,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -401,14 +413,14 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" customWidth="1"/>
-    <col min="3" max="3" width="58.28515625" customWidth="1"/>
+    <col min="2" max="2" width="38.875" customWidth="1"/>
+    <col min="3" max="3" width="58.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -454,13 +466,21 @@
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
